--- a/Regresyon/DummyData/content.xlsx
+++ b/Regresyon/DummyData/content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\Regresyon\DummyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3999B988-521E-4B8D-98E8-E5E8A9781C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633EFA9-D742-4C9C-83FF-0FA451948B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12615" yWindow="2505" windowWidth="11385" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Content name</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Content 1 </t>
+  </si>
+  <si>
+    <t>Content 2</t>
+  </si>
+  <si>
+    <t>Content 3</t>
+  </si>
+  <si>
+    <t>Content 4</t>
+  </si>
+  <si>
+    <t>Content 5</t>
+  </si>
+  <si>
+    <t>Content 6</t>
+  </si>
+  <si>
+    <t>Content 7</t>
+  </si>
+  <si>
+    <t>Content 8</t>
+  </si>
+  <si>
+    <t>Content 9</t>
+  </si>
+  <si>
+    <t>Content 10</t>
+  </si>
+  <si>
+    <t>Content 11</t>
+  </si>
+  <si>
+    <t>Content 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -351,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,19 +401,110 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2022</v>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Regresyon/DummyData/content.xlsx
+++ b/Regresyon/DummyData/content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\Regresyon\DummyData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B633EFA9-D742-4C9C-83FF-0FA451948B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054AD50D-2953-424F-9B3B-5A5215961BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="2505" windowWidth="11385" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Content 1 </t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Content 12</t>
+  </si>
+  <si>
+    <t>Content 13</t>
+  </si>
+  <si>
+    <t>Content 14</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,11 +500,17 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
       <c r="B13">
         <v>2023</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
       <c r="B14">
         <v>2023</v>
       </c>
